--- a/resources/case/Basic.xlsx
+++ b/resources/case/Basic.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="5670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expected" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:H17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,9 +42,6 @@
     <t>/attach/image/object/201708/16/20170816113200_36042.jpg</t>
   </si>
   <si>
-    <t>33204745794cb4b5b4fa4e460aa40676</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -157,10 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>basic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nchr.release.microfastup.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,10 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Full</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,6 +207,18 @@
   </si>
   <si>
     <t>/resources/expected/basic.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>569870db3ecd7eb1e2935aee01e0d5b6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>569870db3ecd7eb1e2935aee01e0d5b6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,7 +547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -564,13 +566,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" t="s">
-        <v>52</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -581,22 +583,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -610,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AI8" sqref="AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -653,117 +655,117 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>21</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>24</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>25</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>26</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>27</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>34</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>37</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>38</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>39</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -781,13 +783,13 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U2">
         <v>1</v>
@@ -802,12 +804,12 @@
         <v>1502854095</v>
       </c>
       <c r="AJ2" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -819,19 +821,19 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U3">
         <v>1</v>
@@ -846,12 +848,13 @@
         <v>1502854095</v>
       </c>
       <c r="AJ3" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -860,7 +863,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -870,7 +873,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -878,10 +881,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/resources/case/Basic.xlsx
+++ b/resources/case/Basic.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="5670" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Expected" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H17"/>
+  <oleSize ref="A1:H23"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>API</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,19 +214,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>569870db3ecd7eb1e2935aee01e0d5b6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>569870db3ecd7eb1e2935aee01e0d5b6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>79c3f0268c633226a9545ea9574822ac</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +235,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -262,9 +263,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -613,7 +615,7 @@
   <dimension ref="A1:AJ3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AI8" sqref="AI8"/>
+      <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -803,7 +805,7 @@
       <c r="AI2">
         <v>1502854095</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -847,8 +849,8 @@
       <c r="AI3">
         <v>1502854095</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>58</v>
+      <c r="AJ3" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/resources/case/Basic.xlsx
+++ b/resources/case/Basic.xlsx
@@ -214,7 +214,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>79c3f0268c633226a9545ea9574822ac</t>
+    <t>f7b4e832895bdedc55a59cfb0b578e8b</t>
   </si>
 </sst>
 </file>
@@ -615,7 +615,7 @@
   <dimension ref="A1:AJ3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2"/>
+      <selection activeCell="AJ3" sqref="AJ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/resources/case/Basic.xlsx
+++ b/resources/case/Basic.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Expected" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H23"/>
+  <oleSize ref="W1:AJ23"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>API</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,15 +206,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>application/x-www-form-urlencoded;charset=UTF-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/resources/expected/basic.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Basic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f7b4e832895bdedc55a59cfb0b578e8b</t>
+    <t>25ac39d80807997a99fe8bd8a07632f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25ac39d80807997a99fe8bd8a07632f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -547,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -561,9 +578,10 @@
     <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -582,8 +600,11 @@
       <c r="F1" t="s">
         <v>2</v>
       </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -601,6 +622,9 @@
       </c>
       <c r="F2" t="s">
         <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -614,9 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AJ3" sqref="AJ3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -767,7 +789,7 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -806,7 +828,7 @@
         <v>1502854095</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
@@ -850,7 +872,7 @@
         <v>1502854095</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -865,7 +887,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -878,15 +900,15 @@
         <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
